--- a/DNISI (TRY).xlsx
+++ b/DNISI (TRY).xlsx
@@ -3332,6 +3332,9 @@
       <c r="A108" t="str">
         <v xml:space="preserve">    Hedge Dahil Net Yabancı Para Pozisyonu</v>
       </c>
+      <c r="B108">
+        <v>13465724</v>
+      </c>
       <c r="C108">
         <v>18489514.16919899</v>
       </c>
@@ -3603,6 +3606,9 @@
       <c r="A5" t="str">
         <v xml:space="preserve">    Yurt İçi Satışlar</v>
       </c>
+      <c r="B5">
+        <v>311481177</v>
+      </c>
       <c r="C5">
         <v>211433555.16437486</v>
       </c>
@@ -3613,7 +3619,7 @@
         <v>443380853.08392847</v>
       </c>
       <c r="F5">
-        <v>327857439.7603715</v>
+        <v>352461114</v>
       </c>
       <c r="G5">
         <v>239505095.07795554</v>
@@ -3656,6 +3662,9 @@
       <c r="A6" t="str">
         <v xml:space="preserve">    Yurt Dışı Satışlar</v>
       </c>
+      <c r="B6">
+        <v>78964054</v>
+      </c>
       <c r="C6">
         <v>52771395.17017914</v>
       </c>
@@ -3666,7 +3675,7 @@
         <v>86778186.90135777</v>
       </c>
       <c r="F6">
-        <v>60249878.10421748</v>
+        <v>64771259</v>
       </c>
       <c r="G6">
         <v>46658329.42278357</v>
@@ -5881,6 +5890,9 @@
       <c r="A5" t="str">
         <v xml:space="preserve">    Yurt İçi Satışlar</v>
       </c>
+      <c r="B5">
+        <v>100047621.83562514</v>
+      </c>
       <c r="C5">
         <v>111989583.01567283</v>
       </c>
@@ -5888,10 +5900,10 @@
         <v>99443972.14870203</v>
       </c>
       <c r="E5">
-        <v>115523413.32355696</v>
+        <v>90919739.08392847</v>
       </c>
       <c r="F5">
-        <v>88352344.68241596</v>
+        <v>112956018.92204446</v>
       </c>
       <c r="G5">
         <v>120262636.4805231</v>
@@ -5928,6 +5940,9 @@
       <c r="A6" t="str">
         <v xml:space="preserve">    Yurt Dışı Satışlar</v>
       </c>
+      <c r="B6">
+        <v>26192658.829820856</v>
+      </c>
       <c r="C6">
         <v>31568828.390253406</v>
       </c>
@@ -5935,10 +5950,10 @@
         <v>21202566.779925738</v>
       </c>
       <c r="E6">
-        <v>26528308.797140293</v>
+        <v>22006927.90135777</v>
       </c>
       <c r="F6">
-        <v>13591548.681433909</v>
+        <v>18112929.57721643</v>
       </c>
       <c r="G6">
         <v>25682026.040495887</v>
@@ -7979,6 +7994,9 @@
       <c r="A5" t="str">
         <v xml:space="preserve">    Yurt İçi Satışlar</v>
       </c>
+      <c r="B5">
+        <v>402400916.08392847</v>
+      </c>
       <c r="C5">
         <v>415309313.1703478</v>
       </c>
@@ -7989,7 +8007,7 @@
         <v>443380853.08392847</v>
       </c>
       <c r="F5">
-        <v>465577870.6810134</v>
+        <v>490181544.9206419</v>
       </c>
       <c r="G5">
         <v>525469920.3670767</v>
@@ -8014,6 +8032,9 @@
       <c r="A6" t="str">
         <v xml:space="preserve">    Yurt Dışı Satışlar</v>
       </c>
+      <c r="B6">
+        <v>100970981.90135777</v>
+      </c>
       <c r="C6">
         <v>92891252.64875335</v>
       </c>
@@ -8024,7 +8045,7 @@
         <v>86778186.90135777</v>
       </c>
       <c r="F6">
-        <v>77498783.42814872</v>
+        <v>82020164.32393125</v>
       </c>
       <c r="G6">
         <v>86759045.06749727</v>
